--- a/TestWork/bin/Debug/result.xlsx
+++ b/TestWork/bin/Debug/result.xlsx
@@ -35,16 +35,16 @@
     <t xml:space="preserve"> Печь 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14.01.2021 20:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 21:10:21</t>
+    <t xml:space="preserve"> 15.01.2021 10:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 10:48:36</t>
   </si>
   <si>
     <t xml:space="preserve"> Печь 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14.01.2021 20:50:21</t>
+    <t xml:space="preserve"> 15.01.2021 10:28:36</t>
   </si>
   <si>
     <t xml:space="preserve"> Серебро</t>
@@ -56,76 +56,76 @@
     <t xml:space="preserve"> Платина</t>
   </si>
   <si>
-    <t xml:space="preserve"> 14.01.2021 21:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 21:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 22:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 22:10:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 22:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 22:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 23:20:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 23:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 23:10:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 23:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.01.2021 23:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 0:20:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 0:00:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 0:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 1:00:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 1:10:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 1:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 1:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 1:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 2:30:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 2:10:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 2:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 2:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.01.2021 3:20:21</t>
+    <t xml:space="preserve"> 15.01.2021 11:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 11:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 12:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 11:48:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 12:18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 12:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 12:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 13:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 12:48:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 13:18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 13:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 13:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 13:38:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 14:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 14:38:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 14:48:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 15:18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 15:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 15:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 16:08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 15:48:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 16:18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 16:28:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.01.2021 16:58:36</t>
   </si>
 </sst>
 </file>
